--- a/hemispherical_photos/processed_hemis/LAI.xlsx
+++ b/hemispherical_photos/processed_hemis/LAI.xlsx
@@ -1,22 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27309"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ewan/projects/ah_data/hemispherical_photos/processed_hemis/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="19980" windowHeight="7815"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="19980" windowHeight="14420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Photo</t>
   </si>
@@ -32,12 +45,24 @@
   <si>
     <t>LAI</t>
   </si>
+  <si>
+    <t>exp2</t>
+  </si>
+  <si>
+    <t>OKAY FROM HERE</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>LAI2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,14 +91,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -120,12 +151,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -152,14 +183,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -186,6 +218,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -361,16 +394,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -378,13 +414,1301 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>-0.85128919999999997</v>
+      </c>
+      <c r="D2">
+        <v>51.153514700000002</v>
+      </c>
+      <c r="E2">
+        <v>3.33</v>
+      </c>
+      <c r="G2">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>-0.85163449999999996</v>
+      </c>
+      <c r="D3">
+        <v>51.1534282</v>
+      </c>
+      <c r="E3">
+        <v>3.4809999999999999</v>
+      </c>
+      <c r="G3">
+        <v>2.6930000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>-0.85206599999999999</v>
+      </c>
+      <c r="D4">
+        <v>51.153324499999997</v>
+      </c>
+      <c r="E4">
+        <v>3.3730000000000002</v>
+      </c>
+      <c r="G4">
+        <v>2.6509999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>-0.85249759999999997</v>
+      </c>
+      <c r="D5">
+        <v>51.1532208</v>
+      </c>
+      <c r="E5">
+        <v>2.8279999999999998</v>
+      </c>
+      <c r="G5">
+        <v>2.3050000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>23</v>
+      </c>
+      <c r="C6">
+        <v>-0.85318819999999995</v>
+      </c>
+      <c r="D6">
+        <v>51.153047700000002</v>
+      </c>
+      <c r="E6">
+        <v>3.09</v>
+      </c>
+      <c r="G6">
+        <v>2.4700000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>28</v>
+      </c>
+      <c r="C7">
+        <v>-0.85353800000000002</v>
+      </c>
+      <c r="D7">
+        <v>51.152781400000002</v>
+      </c>
+      <c r="E7">
+        <v>3.73</v>
+      </c>
+      <c r="G7">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>33</v>
+      </c>
+      <c r="C8">
+        <v>-0.85388770000000003</v>
+      </c>
+      <c r="D8">
+        <v>51.152515100000002</v>
+      </c>
+      <c r="E8">
+        <v>3.4039999999999999</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>2.9460000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>38</v>
+      </c>
+      <c r="C9">
+        <v>-0.85423720000000003</v>
+      </c>
+      <c r="D9">
+        <v>51.1522577</v>
+      </c>
+      <c r="E9">
+        <v>2.831</v>
+      </c>
+      <c r="G9">
+        <v>2.4470000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>43</v>
+      </c>
+      <c r="C10">
+        <v>-0.85458699999999999</v>
+      </c>
+      <c r="D10">
+        <v>51.1519914</v>
+      </c>
+      <c r="E10">
+        <v>3.61</v>
+      </c>
+      <c r="G10">
+        <v>3.6259999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>48</v>
+      </c>
+      <c r="C11">
+        <v>-0.8550141</v>
+      </c>
+      <c r="D11">
+        <v>51.152067500000001</v>
+      </c>
+      <c r="E11">
+        <v>2.9710000000000001</v>
+      </c>
+      <c r="G11">
+        <v>2.9609999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>53</v>
+      </c>
+      <c r="C12">
+        <v>-0.85544109999999995</v>
+      </c>
+      <c r="D12">
+        <v>51.152143600000002</v>
+      </c>
+      <c r="E12">
+        <v>3.3069999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>59</v>
+      </c>
+      <c r="C13">
+        <v>-0.85596779999999995</v>
+      </c>
+      <c r="D13">
+        <v>51.152238699999998</v>
+      </c>
+      <c r="E13">
+        <v>3.258</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>63</v>
+      </c>
+      <c r="C14">
+        <v>-0.85630930000000005</v>
+      </c>
+      <c r="D14">
+        <v>51.152304999999998</v>
+      </c>
+      <c r="E14">
+        <v>3.5179999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>68</v>
+      </c>
+      <c r="C15">
+        <v>-0.85638709999999996</v>
+      </c>
+      <c r="D15">
+        <v>51.152629400000002</v>
+      </c>
+      <c r="E15">
+        <v>4.51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>73</v>
+      </c>
+      <c r="C16">
+        <v>-0.85683019999999999</v>
+      </c>
+      <c r="D16">
+        <v>51.152633799999997</v>
+      </c>
+      <c r="E16">
+        <v>2.8620000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>79</v>
+      </c>
+      <c r="C17">
+        <v>-0.85735910000000004</v>
+      </c>
+      <c r="D17">
+        <v>51.152638899999999</v>
+      </c>
+      <c r="E17">
+        <v>2.9660000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>84</v>
+      </c>
+      <c r="C18">
+        <v>-0.85780230000000002</v>
+      </c>
+      <c r="D18">
+        <v>51.152643300000001</v>
+      </c>
+      <c r="E18">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>88</v>
+      </c>
+      <c r="C19">
+        <v>-0.85815969999999997</v>
+      </c>
+      <c r="D19">
+        <v>51.152646799999999</v>
+      </c>
+      <c r="E19">
+        <v>2.7349999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>93</v>
+      </c>
+      <c r="C20">
+        <v>-0.85860239999999999</v>
+      </c>
+      <c r="D20">
+        <v>51.152669099999997</v>
+      </c>
+      <c r="E20">
+        <v>2.6190000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>98</v>
+      </c>
+      <c r="C21">
+        <v>-0.85904530000000001</v>
+      </c>
+      <c r="D21">
+        <v>51.152682400000003</v>
+      </c>
+      <c r="E21">
+        <v>2.8650000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>103</v>
+      </c>
+      <c r="C22">
+        <v>-0.85948800000000003</v>
+      </c>
+      <c r="D22">
+        <v>51.152704700000001</v>
+      </c>
+      <c r="E22">
+        <v>3.0139999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>108</v>
+      </c>
+      <c r="C23">
+        <v>-0.85993070000000005</v>
+      </c>
+      <c r="D23">
+        <v>51.152726999999999</v>
+      </c>
+      <c r="E23">
+        <v>3.234</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>113</v>
+      </c>
+      <c r="C24">
+        <v>-0.85988350000000002</v>
+      </c>
+      <c r="D24">
+        <v>51.152321899999997</v>
+      </c>
+      <c r="E24">
+        <v>2.4340000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>116</v>
+      </c>
+      <c r="C25">
+        <v>-0.85986079999999998</v>
+      </c>
+      <c r="D25">
+        <v>51.152078799999998</v>
+      </c>
+      <c r="E25">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>121</v>
+      </c>
+      <c r="C26">
+        <v>-0.85961220000000005</v>
+      </c>
+      <c r="D26">
+        <v>51.1517257</v>
+      </c>
+      <c r="E26">
+        <v>2.855</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>124</v>
+      </c>
+      <c r="C27">
+        <v>-0.85947459999999998</v>
+      </c>
+      <c r="D27">
+        <v>51.1515086</v>
+      </c>
+      <c r="E27">
+        <v>2.802</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>129</v>
+      </c>
+      <c r="C28">
+        <v>-0.85991879999999998</v>
+      </c>
+      <c r="D28">
+        <v>51.1514679</v>
+      </c>
+      <c r="E28">
+        <v>3.4350000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>134</v>
+      </c>
+      <c r="C29">
+        <v>-0.86034900000000003</v>
+      </c>
+      <c r="D29">
+        <v>51.151418200000002</v>
+      </c>
+      <c r="E29">
+        <v>3.3580000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>139</v>
+      </c>
+      <c r="C30">
+        <v>-0.86079320000000004</v>
+      </c>
+      <c r="D30">
+        <v>51.151377500000002</v>
+      </c>
+      <c r="E30">
+        <v>2.5950000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>144</v>
+      </c>
+      <c r="C31">
+        <v>-0.86123769999999999</v>
+      </c>
+      <c r="D31">
+        <v>51.151327899999998</v>
+      </c>
+      <c r="E31">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>149</v>
+      </c>
+      <c r="C32">
+        <v>-0.86166759999999998</v>
+      </c>
+      <c r="D32">
+        <v>51.151287099999998</v>
+      </c>
+      <c r="E32">
+        <v>2.7360000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>154</v>
+      </c>
+      <c r="C33">
+        <v>-0.86211179999999998</v>
+      </c>
+      <c r="D33">
+        <v>51.151246499999999</v>
+      </c>
+      <c r="E33">
+        <v>3.4020000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>159</v>
+      </c>
+      <c r="C34">
+        <v>-0.86255630000000005</v>
+      </c>
+      <c r="D34">
+        <v>51.151196800000001</v>
+      </c>
+      <c r="E34">
+        <v>3.2250000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>162</v>
+      </c>
+      <c r="C35">
+        <v>-0.86281419999999998</v>
+      </c>
+      <c r="D35">
+        <v>51.1511724</v>
+      </c>
+      <c r="E35">
+        <v>2.4390000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>167</v>
+      </c>
+      <c r="C36">
+        <v>-0.86325739999999995</v>
+      </c>
+      <c r="D36">
+        <v>51.151176700000001</v>
+      </c>
+      <c r="E36">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>172</v>
+      </c>
+      <c r="C37">
+        <v>-0.86370029999999998</v>
+      </c>
+      <c r="D37">
+        <v>51.15119</v>
+      </c>
+      <c r="E37">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>177</v>
+      </c>
+      <c r="C38">
+        <v>-0.86414340000000001</v>
+      </c>
+      <c r="D38">
+        <v>51.1511943</v>
+      </c>
+      <c r="E38">
+        <v>2.6259999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>185</v>
+      </c>
+      <c r="C39">
+        <v>-0.86485789999999996</v>
+      </c>
+      <c r="D39">
+        <v>51.151210200000001</v>
+      </c>
+      <c r="E39">
+        <v>2.407</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>186</v>
+      </c>
+      <c r="C40">
+        <v>-0.85348469999999999</v>
+      </c>
+      <c r="D40">
+        <v>51.154930100000001</v>
+      </c>
+      <c r="E40">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>191</v>
+      </c>
+      <c r="C41">
+        <v>-0.85388830000000004</v>
+      </c>
+      <c r="D41">
+        <v>51.154799099999998</v>
+      </c>
+      <c r="E41">
+        <v>2.1309999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>196</v>
+      </c>
+      <c r="C42">
+        <v>-0.85429189999999999</v>
+      </c>
+      <c r="D42">
+        <v>51.154668200000003</v>
+      </c>
+      <c r="E42">
+        <v>1.885</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>201</v>
+      </c>
+      <c r="C43">
+        <v>-0.85470849999999998</v>
+      </c>
+      <c r="D43">
+        <v>51.1545913</v>
+      </c>
+      <c r="E43">
+        <v>2.2570000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>207</v>
+      </c>
+      <c r="C44">
+        <v>-0.8552379</v>
+      </c>
+      <c r="D44">
+        <v>51.1545785</v>
+      </c>
+      <c r="E44">
+        <v>2.5419999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <v>212</v>
+      </c>
+      <c r="C45">
+        <v>-0.85568129999999998</v>
+      </c>
+      <c r="D45">
+        <v>51.154573900000003</v>
+      </c>
+      <c r="E45">
+        <v>2.093</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <v>217</v>
+      </c>
+      <c r="C46">
+        <v>-0.85612469999999996</v>
+      </c>
+      <c r="D46">
+        <v>51.154569199999997</v>
+      </c>
+      <c r="E46">
+        <v>2.0339999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <v>222</v>
+      </c>
+      <c r="C47">
+        <v>-0.856568</v>
+      </c>
+      <c r="D47">
+        <v>51.1545646</v>
+      </c>
+      <c r="E47">
+        <v>2.0870000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <v>227</v>
+      </c>
+      <c r="C48">
+        <v>-0.85701159999999998</v>
+      </c>
+      <c r="D48">
+        <v>51.154550899999997</v>
+      </c>
+      <c r="E48" s="1">
+        <v>2.4169999999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B49">
+        <v>232</v>
+      </c>
+      <c r="C49">
+        <v>-0.85742890000000005</v>
+      </c>
+      <c r="D49">
+        <v>51.154447099999999</v>
+      </c>
+      <c r="E49">
+        <v>2.492</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B50">
+        <v>236</v>
+      </c>
+      <c r="C50">
+        <v>-0.8577612</v>
+      </c>
+      <c r="D50">
+        <v>51.154306499999997</v>
+      </c>
+      <c r="E50">
+        <v>2.8919999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B51">
+        <v>241</v>
+      </c>
+      <c r="C51">
+        <v>-0.85816590000000004</v>
+      </c>
+      <c r="D51">
+        <v>51.154130600000002</v>
+      </c>
+      <c r="E51">
+        <v>3.2719999999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B52">
+        <v>246</v>
+      </c>
+      <c r="C52">
+        <v>-0.85857059999999996</v>
+      </c>
+      <c r="D52">
+        <v>51.1539547</v>
+      </c>
+      <c r="E52">
+        <v>2.9049999999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B53">
+        <v>252</v>
+      </c>
+      <c r="C53">
+        <v>-0.8590622</v>
+      </c>
+      <c r="D53">
+        <v>51.1537346</v>
+      </c>
+      <c r="E53">
+        <v>1.958</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B54">
+        <v>256</v>
+      </c>
+      <c r="C54">
+        <v>-0.85938029999999999</v>
+      </c>
+      <c r="D54">
+        <v>51.153593899999997</v>
+      </c>
+      <c r="E54">
+        <v>1.883</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B55">
+        <v>261</v>
+      </c>
+      <c r="C55">
+        <v>-0.85979930000000004</v>
+      </c>
+      <c r="D55">
+        <v>51.153418100000003</v>
+      </c>
+      <c r="E55">
+        <v>2.1909999999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B56">
+        <v>266</v>
+      </c>
+      <c r="C56">
+        <v>-0.86020390000000002</v>
+      </c>
+      <c r="D56">
+        <v>51.153242200000001</v>
+      </c>
+      <c r="E56">
+        <v>2.1850000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B57">
+        <v>271</v>
+      </c>
+      <c r="C57">
+        <v>-0.86060859999999995</v>
+      </c>
+      <c r="D57">
+        <v>51.153066299999999</v>
+      </c>
+      <c r="E57">
+        <v>3.7029999999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B58">
+        <v>276</v>
+      </c>
+      <c r="C58">
+        <v>-0.86101309999999998</v>
+      </c>
+      <c r="D58">
+        <v>51.152899400000003</v>
+      </c>
+      <c r="E58">
+        <v>3.081</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B59">
+        <v>281</v>
+      </c>
+      <c r="C59">
+        <v>-0.86143159999999996</v>
+      </c>
+      <c r="D59">
+        <v>51.152741599999999</v>
+      </c>
+      <c r="E59">
+        <v>3.9529999999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B60">
+        <v>286</v>
+      </c>
+      <c r="C60">
+        <v>-0.86185020000000001</v>
+      </c>
+      <c r="D60">
+        <v>51.152583800000002</v>
+      </c>
+      <c r="E60">
+        <v>2.871</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B61">
+        <v>291</v>
+      </c>
+      <c r="C61">
+        <v>-0.86225439999999998</v>
+      </c>
+      <c r="D61">
+        <v>51.152425899999997</v>
+      </c>
+      <c r="E61">
+        <v>2.948</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B62">
+        <v>296</v>
+      </c>
+      <c r="C62">
+        <v>-0.86267289999999996</v>
+      </c>
+      <c r="D62">
+        <v>51.152268100000001</v>
+      </c>
+      <c r="E62">
+        <v>2.528</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B63">
+        <v>301</v>
+      </c>
+      <c r="C63">
+        <v>-0.86309150000000001</v>
+      </c>
+      <c r="D63">
+        <v>51.152110299999997</v>
+      </c>
+      <c r="E63">
+        <v>4.0830000000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B64">
+        <v>306</v>
+      </c>
+      <c r="C64">
+        <v>-0.86346069999999997</v>
+      </c>
+      <c r="D64">
+        <v>51.152212800000001</v>
+      </c>
+      <c r="E64">
+        <v>2.6389999999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B65">
+        <v>311</v>
+      </c>
+      <c r="C65">
+        <v>-0.86379709999999998</v>
+      </c>
+      <c r="D65">
+        <v>51.152485800000001</v>
+      </c>
+      <c r="E65">
+        <v>2.6930000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B66">
+        <v>316</v>
+      </c>
+      <c r="C66">
+        <v>-0.86413340000000005</v>
+      </c>
+      <c r="D66">
+        <v>51.152767900000001</v>
+      </c>
+      <c r="E66">
+        <v>3.0169999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B67">
+        <v>324</v>
+      </c>
+      <c r="C67">
+        <v>-0.86468029999999996</v>
+      </c>
+      <c r="D67">
+        <v>51.153204799999997</v>
+      </c>
+      <c r="E67">
+        <v>3.0960000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B68">
+        <v>325</v>
+      </c>
+      <c r="C68">
+        <v>-0.85621720000000001</v>
+      </c>
+      <c r="D68">
+        <v>51.156611400000003</v>
+      </c>
+      <c r="E68">
+        <v>2.7959999999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B69">
+        <v>330</v>
+      </c>
+      <c r="C69">
+        <v>-0.8566087</v>
+      </c>
+      <c r="D69">
+        <v>51.156390399999999</v>
+      </c>
+      <c r="E69">
+        <v>2.681</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B70">
+        <v>336</v>
+      </c>
+      <c r="C70">
+        <v>-0.85708709999999999</v>
+      </c>
+      <c r="D70">
+        <v>51.156125299999999</v>
+      </c>
+      <c r="E70">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B71">
+        <v>339</v>
+      </c>
+      <c r="C71">
+        <v>-0.85731919999999995</v>
+      </c>
+      <c r="D71">
+        <v>51.155992699999999</v>
+      </c>
+      <c r="E71">
+        <v>3.871</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B72">
+        <v>345</v>
+      </c>
+      <c r="C72">
+        <v>-0.85782329999999996</v>
+      </c>
+      <c r="D72">
+        <v>51.155844799999997</v>
+      </c>
+      <c r="E72">
+        <v>5.7640000000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B73">
+        <v>349</v>
+      </c>
+      <c r="C73">
+        <v>-0.85816890000000001</v>
+      </c>
+      <c r="D73">
+        <v>51.155749200000002</v>
+      </c>
+      <c r="E73">
+        <v>4.1639999999999997</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B74">
+        <v>354</v>
+      </c>
+      <c r="C74">
+        <v>-0.85858679999999998</v>
+      </c>
+      <c r="D74">
+        <v>51.155618400000002</v>
+      </c>
+      <c r="E74">
+        <v>2.7959999999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B75">
+        <v>359</v>
+      </c>
+      <c r="C75">
+        <v>-0.85900449999999995</v>
+      </c>
+      <c r="D75">
+        <v>51.155496599999999</v>
+      </c>
+      <c r="E75">
+        <v>3.4929999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B76">
+        <v>363</v>
+      </c>
+      <c r="C76">
+        <v>-0.85934999999999995</v>
+      </c>
+      <c r="D76">
+        <v>51.155400999999998</v>
+      </c>
+      <c r="E76">
+        <v>3.585</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B77">
+        <v>368</v>
+      </c>
+      <c r="C77">
+        <v>-0.85972720000000002</v>
+      </c>
+      <c r="D77">
+        <v>51.1551799</v>
+      </c>
+      <c r="E77">
+        <v>3.5339999999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B78">
+        <v>373</v>
+      </c>
+      <c r="C78">
+        <v>-0.86010419999999999</v>
+      </c>
+      <c r="D78">
+        <v>51.154967800000001</v>
+      </c>
+      <c r="E78">
+        <v>3.8580000000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B79">
+        <v>378</v>
+      </c>
+      <c r="C79">
+        <v>-0.86049580000000003</v>
+      </c>
+      <c r="D79">
+        <v>51.154746799999998</v>
+      </c>
+      <c r="E79">
+        <v>4.7439999999999998</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B80">
+        <v>384</v>
+      </c>
+      <c r="C80">
+        <v>-0.86094530000000002</v>
+      </c>
+      <c r="D80">
+        <v>51.1544904</v>
+      </c>
+      <c r="E80">
+        <v>5.3330000000000002</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B81">
+        <v>389</v>
+      </c>
+      <c r="C81">
+        <v>-0.86137070000000004</v>
+      </c>
+      <c r="D81">
+        <v>51.154638400000003</v>
+      </c>
+      <c r="E81">
+        <v>3.9790000000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B82">
+        <v>394</v>
+      </c>
+      <c r="C82">
+        <v>-0.86178189999999999</v>
+      </c>
+      <c r="D82">
+        <v>51.154777299999999</v>
+      </c>
+      <c r="E82">
+        <v>3.3919999999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B83">
+        <v>400</v>
+      </c>
+      <c r="C83">
+        <v>-0.86229239999999996</v>
+      </c>
+      <c r="D83">
+        <v>51.1549531</v>
+      </c>
+      <c r="E83">
+        <v>4.0650000000000004</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B84">
+        <v>404</v>
+      </c>
+      <c r="C84">
+        <v>-0.86263259999999997</v>
+      </c>
+      <c r="D84">
+        <v>51.155073299999998</v>
+      </c>
+      <c r="E84">
+        <v>3.9670000000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B85">
+        <v>409</v>
+      </c>
+      <c r="C85">
+        <v>-0.86268590000000001</v>
+      </c>
+      <c r="D85">
+        <v>51.154651200000004</v>
+      </c>
+      <c r="E85">
+        <v>3.819</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B86">
+        <v>414</v>
+      </c>
+      <c r="C86">
+        <v>-0.86273909999999998</v>
+      </c>
+      <c r="D86">
+        <v>51.154229100000002</v>
+      </c>
+      <c r="E86">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B87">
+        <v>420</v>
+      </c>
+      <c r="C87">
+        <v>-0.86280869999999998</v>
+      </c>
+      <c r="D87">
+        <v>51.153726200000001</v>
+      </c>
+      <c r="E87">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B88">
+        <v>425</v>
+      </c>
+      <c r="C88">
+        <v>-0.86321950000000003</v>
+      </c>
+      <c r="D88">
+        <v>51.153883</v>
+      </c>
+      <c r="E88">
+        <v>3.7149999999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B89">
+        <v>430</v>
+      </c>
+      <c r="C89">
+        <v>-0.86363029999999996</v>
+      </c>
+      <c r="D89">
+        <v>51.154039900000001</v>
+      </c>
+      <c r="E89">
+        <v>3.9460000000000002</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B90">
+        <v>435</v>
+      </c>
+      <c r="C90">
+        <v>-0.86404110000000001</v>
+      </c>
+      <c r="D90">
+        <v>51.1541967</v>
+      </c>
+      <c r="E90">
+        <v>4.024</v>
       </c>
     </row>
   </sheetData>
@@ -393,24 +1717,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hemispherical_photos/processed_hemis/LAI.xlsx
+++ b/hemispherical_photos/processed_hemis/LAI.xlsx
@@ -397,8 +397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -882,7 +882,7 @@
         <v>51.151327899999998</v>
       </c>
       <c r="E31">
-        <v>2668</v>
+        <v>2.6680000000000001</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
